--- a/jayud-ocean-ship/jayud-ocean-ship-web/src/main/resources/static/cost1.xlsx
+++ b/jayud-ocean-ship/jayud-ocean-ship-web/src/main/resources/static/cost1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -168,10 +168,7 @@
     <t>合计：</t>
   </si>
   <si>
-    <t>{totalUSDMoney}</t>
-  </si>
-  <si>
-    <t>{totalRMBMoney}</t>
+    <t>{totalMoney}</t>
   </si>
   <si>
     <t>折合合计：</t>
@@ -228,9 +225,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -279,7 +276,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,29 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,10 +360,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,61 +382,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +396,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -431,19 +428,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,31 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,97 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,21 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -728,7 +710,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,7 +728,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,28 +909,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -942,6 +942,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1262,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1304,194 +1310,200 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
@@ -1499,216 +1511,214 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="13"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2"/>
@@ -1719,7 +1729,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2"/>
@@ -1730,7 +1740,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2"/>
@@ -1739,11 +1749,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2"/>
@@ -1751,15 +1761,15 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="17"/>
+      <c r="F35" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="18"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="B4:D4"/>
@@ -1773,13 +1783,12 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:I15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
